--- a/biology/Biochimie/Rutinose/Rutinose.xlsx
+++ b/biology/Biochimie/Rutinose/Rutinose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le rutinose est un diholoside constitué d'une unité de rhamnose lié à une unité de glucose par une liaison osidique α(1→6).
@@ -512,11 +524,13 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La formule chimique du rutinose est C12H22O10 et son poids moléculaire de 326,30g/mol. C'est un solide blanc hygroscopique[3] qui fond à 190,5 °C[2].
-Le rutinose est présent dans des hétérosides appelés rutinosides, en particulier en association avec des flavonoïdes[3] : hespéridine, rutoside (rutine)...
-Le rutinose est synthétisé à partir de la rutoside par hydrolyse enzymatique (rhamnosidase)[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La formule chimique du rutinose est C12H22O10 et son poids moléculaire de 326,30g/mol. C'est un solide blanc hygroscopique qui fond à 190,5 °C.
+Le rutinose est présent dans des hétérosides appelés rutinosides, en particulier en association avec des flavonoïdes : hespéridine, rutoside (rutine)...
+Le rutinose est synthétisé à partir de la rutoside par hydrolyse enzymatique (rhamnosidase).
 </t>
         </is>
       </c>
